--- a/data/trans_dic/P31_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,51; 38,87</t>
+          <t>23,82; 39,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,26; 34,42</t>
+          <t>19,2; 34,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,24; 50,35</t>
+          <t>31,92; 54,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 32,98</t>
+          <t>17,0; 31,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 42,92</t>
+          <t>21,12; 33,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 39,27</t>
+          <t>27,93; 41,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 33,79</t>
+          <t>24,51; 37,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,17</t>
+          <t>26,91; 41,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,11; 42,66</t>
+          <t>24,45; 34,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 36,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30,34; 43,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 34,94</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>33,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35,99%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,07; 41,47</t>
+          <t>19,0; 34,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 38,99</t>
+          <t>25,75; 42,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,45; 38,96</t>
+          <t>24,02; 41,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 43,37</t>
+          <t>17,01; 32,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,87; 50,11</t>
+          <t>31,83; 47,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,5; 45,97</t>
+          <t>39,86; 56,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,4; 39,59</t>
+          <t>32,54; 49,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,37; 42,72</t>
+          <t>38,31; 58,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 40,41</t>
+          <t>27,36; 38,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,08; 47,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30,44; 42,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,02; 43,15</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>50,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>48,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>45,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38,12%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 56,83</t>
+          <t>29,35; 81,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,75; 55,58</t>
+          <t>13,39; 72,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 45,71</t>
+          <t>6,73; 45,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,17; 48,37</t>
+          <t>9,81; 49,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,7; 58,46</t>
+          <t>26,65; 59,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,37; 70,58</t>
+          <t>37,85; 70,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 48,96</t>
+          <t>41,77; 72,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 50,99</t>
+          <t>33,45; 67,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,5; 53,38</t>
+          <t>34,41; 66,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32,74; 63,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 53,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 51,93</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 37,89</t>
+          <t>26,03; 39,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 35,37</t>
+          <t>25,16; 37,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,43; 41,77</t>
+          <t>28,84; 43,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 36,36</t>
+          <t>19,57; 30,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,72; 44,87</t>
+          <t>28,78; 38,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,68; 42,9</t>
+          <t>36,58; 47,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 35,23</t>
+          <t>32,21; 42,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 38,69</t>
+          <t>35,83; 47,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,69</t>
+          <t>29,15; 36,75</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 40,52</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 40,7</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 37,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>136332</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97931</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>154455</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>123488</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>137588</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143766</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>124714</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>186288</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>273920</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>241697</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>279168</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>309776</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>102435; 168839</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70317; 124785</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>121562; 205935</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85708; 160653</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>107479; 168504</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>116140; 172972</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99888; 153178</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>147561; 225575</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>229596; 325177</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>205042; 281962</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>239191; 344323</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>252877; 367798</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>90747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107997</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>104044</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>99107</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>168812</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>158662</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133297</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>201569</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>259558</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>266658</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>237341</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>300676</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>68278; 123061</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81330; 134448</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>77490; 133730</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69616; 132418</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>135391; 203896</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>133427; 188425</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>109025; 164351</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>163245; 249680</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>214731; 302260</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>228232; 307269</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>200191; 276683</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>250806; 360417</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54064</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29262</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18810</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32743</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42199</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44659</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47514</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53049</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>96263</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>73922</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>66324</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85791</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29101; 81003</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10660; 57742</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5760; 39203</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11713; 59692</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26963; 59826</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30870; 57581</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34486; 59549</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35346; 70974</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68938; 133001</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52763; 102281</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39166; 89349</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53504; 116889</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>281142</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>235190</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>277309</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>255338</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>348599</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>347087</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>305525</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>440906</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>629741</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>582277</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>582834</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>696244</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>231283; 346852</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>191621; 286133</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>227587; 340705</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>202160; 312213</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>298012; 397173</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>304353; 391635</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>265751; 348808</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>387015; 510024</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>560935; 707118</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>517327; 645696</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>522760; 656841</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>610519; 787414</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
